--- a/Items.xlsx
+++ b/Items.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Blad1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$Z$165</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Blad1!$A$1:$Z$166</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="418">
   <si>
     <t>Image</t>
   </si>
@@ -27,91 +27,49 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>https://www.mobafire.com/images/item/black-mist-scythe-50x.png</t>
-  </si>
-  <si>
-    <t>Black Mist Scythe</t>
-  </si>
-  <si>
-    <t>Health, Damage, Mana Regen, Income</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/bulwark-of-the-mountain-50x.png</t>
-  </si>
-  <si>
-    <t>Bulwark of the Mountain</t>
+    <t>https://www.mobafire.com/images/item/dorans-ring-50x.png</t>
+  </si>
+  <si>
+    <t>Doran's Ring</t>
+  </si>
+  <si>
+    <t>Health, Ability Power</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/relic-shield-50x.png</t>
+  </si>
+  <si>
+    <t>Relic Shield</t>
   </si>
   <si>
     <t>Health, Health Regen, Ability Power, Income</t>
   </si>
   <si>
-    <t>https://www.mobafire.com/images/item/dorans-ring-50x.png</t>
-  </si>
-  <si>
-    <t>Doran's Ring</t>
-  </si>
-  <si>
-    <t>Health, Damage, Ability Power, Mana Regen</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/frostfang-50x.png</t>
-  </si>
-  <si>
-    <t>Frostfang</t>
+    <t>https://www.mobafire.com/images/item/spectral-sickle-50x.png</t>
+  </si>
+  <si>
+    <t>Spectral Sickle</t>
+  </si>
+  <si>
+    <t>Health, Attack Damage, Mana Regen, Income</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/spellthiefs-edge-50x.png</t>
+  </si>
+  <si>
+    <t>Spellthief's Edge</t>
   </si>
   <si>
     <t>Health, Ability Power, Mana Regen, Income</t>
   </si>
   <si>
-    <t>https://www.mobafire.com/images/item/pauldrons-of-whiterock-50x.png</t>
-  </si>
-  <si>
-    <t>Pauldrons of Whiterock</t>
-  </si>
-  <si>
-    <t>Health, Health Regen, Damage, Income</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/relic-shield-50x.png</t>
-  </si>
-  <si>
-    <t>Relic Shield</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/runesteel-spaulders-50x.png</t>
-  </si>
-  <si>
-    <t>Runesteel Spaulders</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/shard-of-true-ice-50x.png</t>
-  </si>
-  <si>
-    <t>Shard of True Ice</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/spectral-sickle-50x.png</t>
-  </si>
-  <si>
-    <t>Spectral Sickle</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/spellthiefs-edge-50x.png</t>
-  </si>
-  <si>
-    <t>Spellthief's Edge</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/steel-shoulderguards-50x.png</t>
   </si>
   <si>
     <t>Steel Shoulderguards</t>
   </si>
   <si>
-    <t>https://www.mobafire.com/images/item/targons-buckler-50x.png</t>
-  </si>
-  <si>
-    <t>Targon's Buckler</t>
+    <t>Health, Health Regen, Attack Damage, Income</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/dorans-blade-50x.png</t>
@@ -120,7 +78,7 @@
     <t>Doran's Blade</t>
   </si>
   <si>
-    <t>Health, Damage, Omni Vamp</t>
+    <t>Health, Attack Damage</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/dorans-shield-50x.png</t>
@@ -129,33 +87,54 @@
     <t>Doran's Shield</t>
   </si>
   <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/recurve-bow-50x.png</t>
+  </si>
+  <si>
+    <t>Recurve Bow</t>
+  </si>
+  <si>
+    <t>Attack Speed</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/kircheis-shard-50x.png</t>
+  </si>
+  <si>
+    <t>Kircheis Shard</t>
+  </si>
+  <si>
+    <t>Attack Damage</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/vampiric-scepter-50x.png</t>
+  </si>
+  <si>
+    <t>Vampiric Scepter</t>
+  </si>
+  <si>
+    <t>Attack Damage, Lifesteal</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/bramble-vest-50x.png</t>
+  </si>
+  <si>
+    <t>Bramble Vest</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/crystalline-bracer-50x.png</t>
+  </si>
+  <si>
+    <t>Crystalline Bracer</t>
+  </si>
+  <si>
     <t>Health, Health Regen</t>
   </si>
   <si>
-    <t>https://www.mobafire.com/images/item/kircheis-shard-50x.png</t>
-  </si>
-  <si>
-    <t>Kircheis Shard</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/bramble-vest-50x.png</t>
-  </si>
-  <si>
-    <t>Bramble Vest</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/crystalline-bracer-50x.png</t>
-  </si>
-  <si>
-    <t>Crystalline Bracer</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/executioners-calling-50x.png</t>
   </si>
   <si>
@@ -195,16 +174,13 @@
     <t>Winged Moonplate</t>
   </si>
   <si>
-    <t>Health, Movement</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/aether-wisp-50x.png</t>
   </si>
   <si>
     <t>Aether Wisp</t>
   </si>
   <si>
-    <t>Ability Power, Movement</t>
+    <t>Ability Power, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/boots-of-swiftness-50x.png</t>
@@ -213,7 +189,7 @@
     <t>Boots of Swiftness</t>
   </si>
   <si>
-    <t>Movement</t>
+    <t>Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/fiendish-codex-50x.png</t>
@@ -249,7 +225,7 @@
     <t>Chalice of Blessing</t>
   </si>
   <si>
-    <t>Health, Health Regen, Mana Regen</t>
+    <t>Health, Mana Regen</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/ionian-boots-of-lucidity-50x.png</t>
@@ -258,7 +234,7 @@
     <t>Ionian Boots of Lucidity</t>
   </si>
   <si>
-    <t>Ability Haste, Movement</t>
+    <t>Ability Haste, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/bamis-cinder-50x.png</t>
@@ -267,9 +243,6 @@
     <t>Bami's Cinder</t>
   </si>
   <si>
-    <t>Health</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/mobility-boots-50x.png</t>
   </si>
   <si>
@@ -306,9 +279,6 @@
     <t>Hextech Alternator</t>
   </si>
   <si>
-    <t>Health, Ability Power</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/lifewell-pendant-50x.png</t>
   </si>
   <si>
@@ -324,7 +294,7 @@
     <t>Berserker's Greaves</t>
   </si>
   <si>
-    <t>Attack Speed, Movement</t>
+    <t>Attack Speed, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/blighting-jewel-50x.png</t>
@@ -333,13 +303,16 @@
     <t>Blighting Jewel</t>
   </si>
   <si>
+    <t>Ability Power, Magic Penetration</t>
+  </si>
+  <si>
     <t>https://www.mobafire.com/images/item/caulfields-warhammer-50x.png</t>
   </si>
   <si>
     <t>Caulfield's Warhammer</t>
   </si>
   <si>
-    <t>Damage, Ability Haste</t>
+    <t>Attack Damage, Ability Haste</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/hearthbound-axe-50x.png</t>
@@ -348,7 +321,7 @@
     <t>Hearthbound Axe</t>
   </si>
   <si>
-    <t>Damage, Attack Speed, Movement</t>
+    <t>Attack Damage, Attack Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/ironspike-whip-50x.png</t>
@@ -372,7 +345,7 @@
     <t>Mercury's Treads</t>
   </si>
   <si>
-    <t>Magic Resist, Movement</t>
+    <t>Magic Resist, Move Speed, Tenacity</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/phage-50x.png</t>
@@ -381,16 +354,13 @@
     <t>Phage</t>
   </si>
   <si>
-    <t>Health, Damage</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/plated-steelcaps-50x.png</t>
   </si>
   <si>
     <t>Plated Steelcaps</t>
   </si>
   <si>
-    <t>Armor, Movement</t>
+    <t>Armor, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/serrated-dirk-50x.png</t>
@@ -399,15 +369,15 @@
     <t>Serrated Dirk</t>
   </si>
   <si>
-    <t>Damage, Lethality</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/sorcerers-shoes-50x.png</t>
   </si>
   <si>
     <t>Sorcerer's Shoes</t>
   </si>
   <si>
+    <t>Move Speed, Magic Penetration</t>
+  </si>
+  <si>
     <t>https://www.mobafire.com/images/item/watchful-wardstone-50x.png</t>
   </si>
   <si>
@@ -423,7 +393,7 @@
     <t>Zeal</t>
   </si>
   <si>
-    <t>Critical Strike, Attack Speed, Movement</t>
+    <t>Critical Strike Chance, Attack Speed, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/aegis-of-the-legion-50x.png</t>
@@ -441,9 +411,6 @@
     <t>Rageknife</t>
   </si>
   <si>
-    <t>Damage, Attack Speed</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/tiamat-50x.png</t>
   </si>
   <si>
@@ -456,7 +423,7 @@
     <t>Spectre's Cowl</t>
   </si>
   <si>
-    <t>Health, Magic Resist, Health Regen</t>
+    <t>Health, Magic Resist</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/catalyst-of-aeons-50x.png</t>
@@ -474,7 +441,7 @@
     <t>Hexdrinker</t>
   </si>
   <si>
-    <t>Magic Resist, Damage</t>
+    <t>Magic Resist, Attack Damage</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/leeching-leer-50x.png</t>
@@ -483,7 +450,7 @@
     <t>Leeching Leer</t>
   </si>
   <si>
-    <t>Health, Ability Power, Omni Vamp</t>
+    <t>Health, Ability Power, Omnivamp</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/noonquiver-50x.png</t>
@@ -507,6 +474,9 @@
     <t>Last Whisper</t>
   </si>
   <si>
+    <t>Attack Damage, Armor Penetration</t>
+  </si>
+  <si>
     <t>https://www.mobafire.com/images/item/mejais-soulstealer-50x.png</t>
   </si>
   <si>
@@ -519,7 +489,7 @@
     <t>Ardent Censer</t>
   </si>
   <si>
-    <t>Ability Power, Mana Regen, Movement, Heal and Shield Power</t>
+    <t>Ability Power, Mana Regen, Move Speed, Heal and Shield Power</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/chemtech-putrifier-50x.png</t>
@@ -537,7 +507,7 @@
     <t>Staff of Flowing Water</t>
   </si>
   <si>
-    <t>Ability Power, Mana Regen, Heal and Shield Power</t>
+    <t>Ability Power, Mana Regen, Heal and Shield Power, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/knights-vow-50x.png</t>
@@ -582,9 +552,6 @@
     <t>Imperial Mandate</t>
   </si>
   <si>
-    <t>Ability Power, Ability Haste, Mana Regen, Movement</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/locket-of-the-iron-solari-50x.png</t>
   </si>
   <si>
@@ -597,7 +564,7 @@
     <t>Mikael's Blessing</t>
   </si>
   <si>
-    <t>Health, Health Regen, Mana Regen, Heal and Shield Power</t>
+    <t>Health, Mana Regen, Heal and Shield Power</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/moonstone-renewer-50x.png</t>
@@ -606,16 +573,13 @@
     <t>Moonstone Renewer</t>
   </si>
   <si>
-    <t>Health, Ability Power, Ability Haste, Mana Regen, Heal and Shield Power</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/redemption-50x.png</t>
   </si>
   <si>
     <t>Redemption</t>
   </si>
   <si>
-    <t>Health, Ability Haste, Mana Regen, Heal and Shield Power</t>
+    <t>Health,, Mana Regen, Heal and Shield Power</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/shurelyas-battlesong-50x.png</t>
@@ -624,16 +588,13 @@
     <t>Shurelya's Battlesong</t>
   </si>
   <si>
-    <t>Health, Ability Power, Ability Haste, Mana Regen, Movement</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/umbral-glaive-50x.png</t>
   </si>
   <si>
     <t>Umbral Glaive</t>
   </si>
   <si>
-    <t>Damage, Ability Haste, Lethality</t>
+    <t>Attack Damage, Ability Haste, Lethality</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/vigilant-wardstone-50x.png</t>
@@ -642,6 +603,9 @@
     <t>Vigilant Wardstone</t>
   </si>
   <si>
+    <t>Health, Ability Haste. Mana Regen</t>
+  </si>
+  <si>
     <t>https://www.mobafire.com/images/item/abyssal-mask-50x.png</t>
   </si>
   <si>
@@ -687,6 +651,9 @@
     <t>Serpent's Fang</t>
   </si>
   <si>
+    <t>Attack Damage, Lethality</t>
+  </si>
+  <si>
     <t>https://www.mobafire.com/images/item/winters-approach-50x.png</t>
   </si>
   <si>
@@ -720,9 +687,6 @@
     <t>Sunfire Aegis</t>
   </si>
   <si>
-    <t>Health, Armor, Damage</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/thornmail-50x.png</t>
   </si>
   <si>
@@ -735,7 +699,7 @@
     <t>Chempunk Chainsword</t>
   </si>
   <si>
-    <t>Health, Damage, Ability Haste</t>
+    <t>Health, Attack Damage, Ability Haste</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/crown-of-the-shattered-queen-50x.png</t>
@@ -744,7 +708,7 @@
     <t>Crown of the Shattered Queen</t>
   </si>
   <si>
-    <t>Health, Ability Power, Ability Haste, Mana, Movement</t>
+    <t>Health, Ability Power, Ability Haste, Mana</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/everfrost-50x.png</t>
@@ -753,16 +717,13 @@
     <t>Everfrost</t>
   </si>
   <si>
-    <t>Health, Ability Power, Ability Haste, Mana</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/force-of-nature-50x.png</t>
   </si>
   <si>
     <t>Force of Nature</t>
   </si>
   <si>
-    <t>Health, Magic Resist, Movement</t>
+    <t>Health, Magic Resist, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/maw-of-malmortius-50x.png</t>
@@ -771,16 +732,13 @@
     <t>Maw of Malmortius</t>
   </si>
   <si>
-    <t>Magic Resist, Damage, Life Steal</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/phantom-dancer-50x.png</t>
   </si>
   <si>
     <t>Phantom Dancer</t>
   </si>
   <si>
-    <t>Damage, Critical Strike, Attack Speed, Movement</t>
+    <t>Attack Damage, Critical Strike Chance, Attack Speed, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/rod-of-ages-50x.png</t>
@@ -789,6 +747,9 @@
     <t>Rod of Ages</t>
   </si>
   <si>
+    <t>Health, Ability Power, Mana</t>
+  </si>
+  <si>
     <t>https://www.mobafire.com/images/item/runaans-hurricane-50x.png</t>
   </si>
   <si>
@@ -801,9 +762,6 @@
     <t>Turbo Chemtank</t>
   </si>
   <si>
-    <t>Health, Magic Resist, Ability Haste, Movement</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/void-staff-50x.png</t>
   </si>
   <si>
@@ -816,7 +774,7 @@
     <t>Dead Man's Plate</t>
   </si>
   <si>
-    <t>Health, Armor, Movement</t>
+    <t>Health, Armor, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/edge-of-night-50x.png</t>
@@ -825,7 +783,7 @@
     <t>Edge of Night</t>
   </si>
   <si>
-    <t>Health, Damage, Lethality</t>
+    <t>Health, Attack Damage, Lethality</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/essence-reaver-50x.png</t>
@@ -834,7 +792,7 @@
     <t>Essence Reaver</t>
   </si>
   <si>
-    <t>Damage, Critical Strike, Ability Haste</t>
+    <t>Attack Damage, Critical Strike Chance, Ability Haste</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/manamune-50x.png</t>
@@ -843,7 +801,7 @@
     <t>Manamune</t>
   </si>
   <si>
-    <t>Damage, Ability Haste, Mana</t>
+    <t>Attack Damage, Ability Haste, Mana</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/muramana-50x.png</t>
@@ -867,141 +825,150 @@
     <t>Archangel's Staff</t>
   </si>
   <si>
+    <t>Ability Power, Ability Haste, Mana, Health</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/axiom-arc-50x.png</t>
+  </si>
+  <si>
+    <t>Axiom Arc</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/cosmic-drive-50x.png</t>
+  </si>
+  <si>
+    <t>Cosmic Drive</t>
+  </si>
+  <si>
+    <t>Ability Power, Ability Haste, Move Speed</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/demonic-embrace-50x.png</t>
+  </si>
+  <si>
+    <t>Demonic Embrace</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/guardian-angel-50x.png</t>
+  </si>
+  <si>
+    <t>Guardian Angel</t>
+  </si>
+  <si>
+    <t>Armor, Attack Damage</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/hextech-gunblade-50x.png</t>
+  </si>
+  <si>
+    <t>Hextech Gunblade</t>
+  </si>
+  <si>
+    <t>Attack Damage, Life Steal, Ability Power</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/horizon-focus-50x.png</t>
+  </si>
+  <si>
+    <t>Horizon Focus</t>
+  </si>
+  <si>
+    <t>Ability Power, Ability Haste, Health</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/hullbreaker-50x.png</t>
+  </si>
+  <si>
+    <t>Hullbreaker</t>
+  </si>
+  <si>
+    <t>Health, Health Regen, Move Speed, Attack Damage</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/iceborn-gauntlet-50x.png</t>
+  </si>
+  <si>
+    <t>Iceborn Gauntlet</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/immortal-shieldbow-50x.png</t>
+  </si>
+  <si>
+    <t>Immortal Shieldbow</t>
+  </si>
+  <si>
+    <t>Attack Damage, Critical Strike Chance, Life Steal</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/kraken-slayer-50x.png</t>
+  </si>
+  <si>
+    <t>Kraken Slayer</t>
+  </si>
+  <si>
+    <t>Attack Damage, Critical Strike Chance, Attack Speed</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/lich-bane-50x.png</t>
+  </si>
+  <si>
+    <t>Lich Bane</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/lord-dominiks-regards-50x.png</t>
+  </si>
+  <si>
+    <t>Lord Dominik's Regards</t>
+  </si>
+  <si>
+    <t>Attack Damage, Critical Strike Chance, Armor Penetration</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/mercurial-scimitar-50x.png</t>
+  </si>
+  <si>
+    <t>Mercurial Scimitar</t>
+  </si>
+  <si>
+    <t>Magic Resist, Attack Damage, Critical Strike Chance</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/morellonomicon-50x.png</t>
+  </si>
+  <si>
+    <t>Morellonomicon</t>
+  </si>
+  <si>
+    <t>Health, Ability Power, Magic Penetration</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/mortal-reminder-50x.png</t>
+  </si>
+  <si>
+    <t>Mortal Reminder</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/prowlers-claw-50x.png</t>
+  </si>
+  <si>
+    <t>Prowler's Claw</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/rapid-firecannon-50x.png</t>
+  </si>
+  <si>
+    <t>Rapid Firecannon</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/seraphs-embrace-50x.png</t>
+  </si>
+  <si>
+    <t>Seraph's Embrace</t>
+  </si>
+  <si>
     <t>Ability Power, Ability Haste, Mana, Mana Regen</t>
   </si>
   <si>
-    <t>https://www.mobafire.com/images/item/axiom-arc-50x.png</t>
-  </si>
-  <si>
-    <t>Axiom Arc</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/cosmic-drive-50x.png</t>
-  </si>
-  <si>
-    <t>Cosmic Drive</t>
-  </si>
-  <si>
-    <t>Ability Power, Ability Haste, Movement</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/demonic-embrace-50x.png</t>
-  </si>
-  <si>
-    <t>Demonic Embrace</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/guardian-angel-50x.png</t>
-  </si>
-  <si>
-    <t>Guardian Angel</t>
-  </si>
-  <si>
-    <t>Armor, Damage</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/hextech-gunblade-50x.png</t>
-  </si>
-  <si>
-    <t>Hextech Gunblade</t>
-  </si>
-  <si>
-    <t>Damage, Life Steal, Ability Power</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/horizon-focus-50x.png</t>
-  </si>
-  <si>
-    <t>Horizon Focus</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/hullbreaker-50x.png</t>
-  </si>
-  <si>
-    <t>Hullbreaker</t>
-  </si>
-  <si>
-    <t>Health, Magic Resist, Health Regen, Armor, Damage</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/iceborn-gauntlet-50x.png</t>
-  </si>
-  <si>
-    <t>Iceborn Gauntlet</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/immortal-shieldbow-50x.png</t>
-  </si>
-  <si>
-    <t>Immortal Shieldbow</t>
-  </si>
-  <si>
-    <t>Damage, Critical Strike, Attack Speed, Life Steal</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/kraken-slayer-50x.png</t>
-  </si>
-  <si>
-    <t>Kraken Slayer</t>
-  </si>
-  <si>
-    <t>Damage, Critical Strike, Attack Speed</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/lich-bane-50x.png</t>
-  </si>
-  <si>
-    <t>Lich Bane</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/lord-dominiks-regards-50x.png</t>
-  </si>
-  <si>
-    <t>Lord Dominik's Regards</t>
-  </si>
-  <si>
-    <t>Damage, Critical Strike</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/mercurial-scimitar-50x.png</t>
-  </si>
-  <si>
-    <t>Mercurial Scimitar</t>
-  </si>
-  <si>
-    <t>Magic Resist, Damage, Critical Strike, Movement</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/morellonomicon-50x.png</t>
-  </si>
-  <si>
-    <t>Morellonomicon</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/mortal-reminder-50x.png</t>
-  </si>
-  <si>
-    <t>Mortal Reminder</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/prowlers-claw-50x.png</t>
-  </si>
-  <si>
-    <t>Prowler's Claw</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/rapid-firecannon-50x.png</t>
-  </si>
-  <si>
-    <t>Rapid Firecannon</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/seraphs-embrace-50x.png</t>
-  </si>
-  <si>
-    <t>Seraph's Embrace</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/shadowflame-50x.png</t>
   </si>
   <si>
@@ -1014,7 +981,7 @@
     <t>Silvermere Dawn</t>
   </si>
   <si>
-    <t>Health, Magic Resist, Damage</t>
+    <t>Health, Magic Resist, Attack Damage</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/statikk-shiv-50x.png</t>
@@ -1041,7 +1008,7 @@
     <t>The Collector</t>
   </si>
   <si>
-    <t>Damage, Critical Strike, Lethality</t>
+    <t>Attack Damage, Critical Strike Chance, Lethality</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/warmogs-armor-50x.png</t>
@@ -1059,7 +1026,7 @@
     <t>Zephyr</t>
   </si>
   <si>
-    <t>Attack Speed, Ability Haste, Movement</t>
+    <t>Attack Speed, Ability Haste, Move Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/zhonyas-hourglass-50x.png</t>
@@ -1083,9 +1050,6 @@
     <t>Duskblade of Draktharr</t>
   </si>
   <si>
-    <t>Damage, Ability Haste, Movement, Lethality</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/eclipse-50x.png</t>
   </si>
   <si>
@@ -1098,7 +1062,7 @@
     <t>Wit's End</t>
   </si>
   <si>
-    <t>Magic Resist, Damage, Attack Speed, Movement</t>
+    <t>Magic Resist, Attack Damage, Attack Speed</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/youmuus-ghostblade-50x.png</t>
@@ -1113,6 +1077,9 @@
     <t>Youmuu's Wake</t>
   </si>
   <si>
+    <t>Attack Damage, Ability Haste, Move Speed, Lethality</t>
+  </si>
+  <si>
     <t>https://www.mobafire.com/images/item/gargoyle-stoneplate-50x.png</t>
   </si>
   <si>
@@ -1125,7 +1092,7 @@
     <t>Goredrinker</t>
   </si>
   <si>
-    <t>Health, Damage, Ability Haste, Omni Vamp</t>
+    <t>Health, Attack Damage, Ability Haste, Omnivamp</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/guinsoos-rageblade-50x.png</t>
@@ -1134,7 +1101,7 @@
     <t>Guinsoo's Rageblade</t>
   </si>
   <si>
-    <t>Damage, Attack Speed, Ability Power</t>
+    <t>Attack Damage, Attack Speed, Ability Power</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/heartsteel-50x.png</t>
@@ -1143,58 +1110,61 @@
     <t>Heartsteel</t>
   </si>
   <si>
-    <t>Health, Health Regen, Damage, Ability Haste</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/hextech-rocketbelt-50x.png</t>
   </si>
   <si>
     <t>Hextech Rocketbelt</t>
   </si>
   <si>
+    <t>Health, Ability Power, Ability Haste, Magic Penetration</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/jaksho-the-protean-50x.png</t>
+  </si>
+  <si>
+    <t>Jak'Sho, The Protean</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/liandrys-anguish-50x.png</t>
+  </si>
+  <si>
+    <t>Liandry's Anguish</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/ludens-tempest-50x.png</t>
+  </si>
+  <si>
+    <t>Luden's Tempest</t>
+  </si>
+  <si>
+    <t>Ability Power, Ability Haste, Mana, Magic Penetration</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/nashors-tooth-50x.png</t>
+  </si>
+  <si>
+    <t>Nashor's Tooth</t>
+  </si>
+  <si>
+    <t>Attack Speed, Ability Power, Ability Haste</t>
+  </si>
+  <si>
+    <t>https://www.mobafire.com/images/item/night-harvester-50x.png</t>
+  </si>
+  <si>
+    <t>Night Harvester</t>
+  </si>
+  <si>
     <t>Health, Ability Power, Ability Haste</t>
   </si>
   <si>
-    <t>https://www.mobafire.com/images/item/jaksho-the-protean-50x.png</t>
-  </si>
-  <si>
-    <t>Jak'Sho, The Protean</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/liandrys-anguish-50x.png</t>
-  </si>
-  <si>
-    <t>Liandry's Anguish</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/ludens-tempest-50x.png</t>
-  </si>
-  <si>
-    <t>Luden's Tempest</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/nashors-tooth-50x.png</t>
-  </si>
-  <si>
-    <t>Nashor's Tooth</t>
-  </si>
-  <si>
-    <t>Attack Speed, Ability Power</t>
-  </si>
-  <si>
-    <t>https://www.mobafire.com/images/item/night-harvester-50x.png</t>
-  </si>
-  <si>
-    <t>Night Harvester</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/riftmaker-50x.png</t>
   </si>
   <si>
     <t>Riftmaker</t>
   </si>
   <si>
-    <t>Health, Ability Power, Ability Haste, Omni Vamp</t>
+    <t>Health, Ability Power, Ability Haste, Omnivamp</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/seryldas-grudge-50x.png</t>
@@ -1203,13 +1173,16 @@
     <t>Serylda's Grudge</t>
   </si>
   <si>
+    <t>Attack Damage, Ability Haste, Armor Penetration</t>
+  </si>
+  <si>
     <t>https://www.mobafire.com/images/item/blade-of-the-ruined-king-50x.png</t>
   </si>
   <si>
     <t>Blade of the Ruined King</t>
   </si>
   <si>
-    <t>Damage, Attack Speed, Life Steal</t>
+    <t>Attack Damage, Attack Speed, Life Steal</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/deaths-dance-50x.png</t>
@@ -1218,7 +1191,7 @@
     <t>Death's Dance</t>
   </si>
   <si>
-    <t>Armor, Damage, Ability Haste</t>
+    <t>Armor, Attack Damage, Ability Haste</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/divine-sunderer-50x.png</t>
@@ -1233,16 +1206,13 @@
     <t>Spear of Shojin</t>
   </si>
   <si>
-    <t>Health, Damage, Ability Haste, Movement</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/stridebreaker-50x.png</t>
   </si>
   <si>
     <t>Stridebreaker</t>
   </si>
   <si>
-    <t>Health, Damage, Attack Speed, Ability Haste, Movement</t>
+    <t>Health, Attack Damage, Attack Speed, Ability Haste</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/titanic-hydra-50x.png</t>
@@ -1251,15 +1221,6 @@
     <t>Titanic Hydra</t>
   </si>
   <si>
-    <t>https://www.mobafire.com/images/item/infinity-force-50x.png</t>
-  </si>
-  <si>
-    <t>Infinity Force</t>
-  </si>
-  <si>
-    <t>Health, Damage, Attack Speed, Ability Haste</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/trinity-force-50x.png</t>
   </si>
   <si>
@@ -1272,9 +1233,6 @@
     <t>Bloodthirster</t>
   </si>
   <si>
-    <t>Damage, Critical Strike, Life Steal</t>
-  </si>
-  <si>
     <t>https://www.mobafire.com/images/item/galeforce-50x.png</t>
   </si>
   <si>
@@ -1287,6 +1245,9 @@
     <t>Infinity Edge</t>
   </si>
   <si>
+    <t>Attack Damage, Critical Strike Chance, Critical Strike Damage</t>
+  </si>
+  <si>
     <t>https://www.mobafire.com/images/item/navori-quickblades-50x.png</t>
   </si>
   <si>
@@ -1299,7 +1260,7 @@
     <t>Ravenous Hydra</t>
   </si>
   <si>
-    <t>Damage, Life Steal, Ability Haste</t>
+    <t>Attack Damage, Life Steal, Ability Haste</t>
   </si>
   <si>
     <t>https://www.mobafire.com/images/item/rabadons-deathcap-50x.png</t>
@@ -1312,7 +1273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1334,6 +1295,17 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1376,24 +1348,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,13 +1590,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="61.13"/>
     <col customWidth="1" min="2" max="2" width="23.63"/>
     <col customWidth="1" min="3" max="3" width="54.38"/>
+    <col customWidth="1" min="4" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,21 +1612,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="4">
         <v>400.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1657,21 +1640,21 @@
         <v>400.0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="4">
         <v>400.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1685,2250 +1668,3035 @@
         <v>400.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>400.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4">
-        <v>450.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="4">
-        <v>450.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="4">
-        <v>700.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="D18" s="4">
         <v>800.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="4">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>850.0</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="D20" s="4">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D21" s="4">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D22" s="4">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>900.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>950.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="4">
+        <v>950.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="4">
+        <v>950.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="4">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="4">
-        <v>850.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="4">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D27" s="4">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D28" s="4">
-        <v>900.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D29" s="4">
-        <v>950.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D30" s="4">
-        <v>950.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D31" s="4">
-        <v>950.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1050.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1050.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="D33" s="4">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1100.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D34" s="4">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1100.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D35" s="4">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>1100.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>101</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D36" s="4">
-        <v>1000.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1100.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D37" s="4">
-        <v>1050.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1100.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D38" s="4">
-        <v>1050.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1100.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D39" s="4">
         <v>1100.0</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>57</v>
+        <v>112</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D40" s="4">
         <v>1100.0</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="D41" s="4">
         <v>1100.0</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D42" s="4">
         <v>1100.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>41</v>
+        <v>119</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D43" s="4">
         <v>1100.0</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D44" s="4">
         <v>1100.0</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D45" s="4">
         <v>1100.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D46" s="4">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D47" s="4">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D48" s="4">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1200.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>66</v>
+        <v>135</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="D49" s="4">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1250.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D50" s="4">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1300.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D51" s="4">
-        <v>1100.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1300.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="D52" s="4">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1300.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="D53" s="4">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1300.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="D54" s="4">
-        <v>1200.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1300.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D55" s="4">
-        <v>1250.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1450.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="D56" s="4">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1600.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>153</v>
+        <v>157</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="D57" s="4">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>2100.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D58" s="4">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2100.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>142</v>
+        <v>163</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D59" s="4">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>2100.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D60" s="4">
-        <v>1300.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>2200.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="D61" s="4">
-        <v>1450.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>2200.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D62" s="4">
-        <v>1600.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D63" s="4">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="D64" s="4">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="4">
-        <v>2100.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D66" s="4">
-        <v>2200.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="D67" s="4">
-        <v>2200.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>2300.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="D68" s="4">
         <v>2300.0</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D69" s="4">
         <v>2300.0</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D70" s="4">
         <v>2300.0</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>186</v>
+        <v>195</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D71" s="4">
         <v>2300.0</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D72" s="4">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>2400.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="D73" s="4">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>2500.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D74" s="4">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>2600.0</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D75" s="4">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>2600.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="D76" s="4">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>2600.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D77" s="4">
+        <v>2600.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="4">
-        <v>2300.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="D78" s="4">
-        <v>2400.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>2600.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D79" s="4">
-        <v>2500.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>2700.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="D80" s="4">
-        <v>2600.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>2700.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D81" s="4">
-        <v>2600.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>2700.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D82" s="4">
-        <v>2600.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>2700.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="D83" s="4">
-        <v>2600.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>2700.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D84" s="4">
-        <v>2600.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>2800.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>72</v>
+        <v>230</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="D85" s="4">
-        <v>2700.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>2800.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="D86" s="4">
-        <v>2700.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>2800.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="D87" s="4">
-        <v>2700.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>2800.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D88" s="4">
-        <v>2700.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>2800.0</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>232</v>
+        <v>240</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D89" s="4">
-        <v>2700.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>2800.0</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>240</v>
+        <v>243</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="D90" s="4">
         <v>2800.0</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="D91" s="4">
         <v>2800.0</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D92" s="4">
         <v>2800.0</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="D93" s="4">
         <v>2800.0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C94" s="4" t="s">
         <v>252</v>
       </c>
+      <c r="C94" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="D94" s="4">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>2900.0</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C95" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="C95" s="5" t="s">
+        <v>256</v>
+      </c>
       <c r="D95" s="4">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>2900.0</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>246</v>
+        <v>258</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D96" s="4">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>2900.0</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="D97" s="4">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>2900.0</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C98" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>262</v>
       </c>
       <c r="D98" s="4">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>2900.0</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>57</v>
+        <v>267</v>
       </c>
       <c r="D99" s="4">
-        <v>2800.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>2900.0</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="D100" s="4">
-        <v>2900.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D101" s="4">
-        <v>2900.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="D102" s="4">
-        <v>2900.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>276</v>
+        <v>6</v>
       </c>
       <c r="D103" s="4">
-        <v>2900.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="D104" s="4">
-        <v>2900.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="D105" s="4">
-        <v>2900.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="D106" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>206</v>
+        <v>288</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="D107" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>289</v>
+        <v>90</v>
       </c>
       <c r="D108" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>97</v>
+        <v>293</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="D109" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>294</v>
+        <v>296</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="D110" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>297</v>
+        <v>299</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="D111" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>69</v>
+        <v>301</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="D112" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>305</v>
       </c>
       <c r="D113" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>100</v>
+        <v>307</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="D114" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>307</v>
+        <v>310</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="D115" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D116" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>289</v>
+        <v>314</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D117" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D118" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="D119" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>97</v>
+        <v>321</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>322</v>
       </c>
       <c r="D120" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>315</v>
+        <v>324</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="D121" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>206</v>
+        <v>326</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D122" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>255</v>
+        <v>328</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="D123" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>284</v>
+        <v>330</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="D124" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>97</v>
+        <v>334</v>
       </c>
       <c r="D125" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>333</v>
+        <v>336</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="D126" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="D127" s="4">
         <v>3000.0</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>122</v>
+        <v>342</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D128" s="4">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>3100.0</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>255</v>
+        <v>344</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D129" s="4">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>3100.0</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D130" s="4">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>3100.0</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="D131" s="4">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>3100.0</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D132" s="4">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>3100.0</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="D133" s="4">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>3100.0</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>240</v>
+        <v>129</v>
       </c>
       <c r="D134" s="4">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>3200.0</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="D135" s="4">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>3200.0</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>206</v>
+        <v>361</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>362</v>
       </c>
       <c r="D136" s="4">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>3200.0</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="D137" s="4">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>3200.0</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>356</v>
+        <v>366</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="D138" s="4">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>3200.0</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>356</v>
+        <v>176</v>
       </c>
       <c r="D139" s="4">
-        <v>3100.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>3200.0</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="3" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D140" s="4">
         <v>3200.0</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>370</v>
+        <v>373</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="D141" s="4">
         <v>3200.0</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="3" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="D142" s="4">
         <v>3200.0</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D143" s="4">
         <v>3200.0</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>379</v>
+        <v>382</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="D144" s="4">
         <v>3200.0</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>186</v>
+        <v>385</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>386</v>
       </c>
       <c r="D145" s="4">
         <v>3200.0</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>116</v>
+        <v>388</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>389</v>
       </c>
       <c r="D146" s="4">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="3" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>116</v>
+        <v>391</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>392</v>
       </c>
       <c r="D147" s="4">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="3" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>388</v>
+        <v>394</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D148" s="4">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>379</v>
+        <v>396</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D149" s="4">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>393</v>
+        <v>398</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="D150" s="4">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>108</v>
+        <v>401</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D151" s="4">
-        <v>3200.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>3300.0</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="3" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>398</v>
+        <v>403</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="D152" s="4">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>3333.0</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="3" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="D153" s="4">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>3400.0</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>240</v>
+        <v>407</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D154" s="4">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>3400.0</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>406</v>
+        <v>409</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="D155" s="4">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>3400.0</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>409</v>
+        <v>412</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D156" s="4">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>3400.0</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>122</v>
+        <v>414</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="D157" s="4">
-        <v>3300.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>3400.0</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>414</v>
+        <v>50</v>
       </c>
       <c r="D158" s="4">
-        <v>3333.0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="D159" s="4">
-        <v>3333.0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="D160" s="4">
-        <v>3400.0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D161" s="4">
-        <v>3400.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D162" s="4">
-        <v>3400.0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D163" s="4">
-        <v>3400.0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D164" s="4">
-        <v>3400.0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D165" s="4">
         <v>3600.0</v>
       </c>
     </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="8"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="5"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="8"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="8"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="8"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="8"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="8"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="8"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="8"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$Z$165">
-    <sortState ref="A1:Z165">
-      <sortCondition ref="D1:D165"/>
+  <autoFilter ref="$A$1:$Z$166">
+    <sortState ref="A1:Z166">
+      <sortCondition ref="D1:D166"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -4089,14 +4857,7 @@
     <hyperlink r:id="rId155" ref="A156"/>
     <hyperlink r:id="rId156" ref="A157"/>
     <hyperlink r:id="rId157" ref="A158"/>
-    <hyperlink r:id="rId158" ref="A159"/>
-    <hyperlink r:id="rId159" ref="A160"/>
-    <hyperlink r:id="rId160" ref="A161"/>
-    <hyperlink r:id="rId161" ref="A162"/>
-    <hyperlink r:id="rId162" ref="A163"/>
-    <hyperlink r:id="rId163" ref="A164"/>
-    <hyperlink r:id="rId164" ref="A165"/>
   </hyperlinks>
-  <drawing r:id="rId165"/>
+  <drawing r:id="rId158"/>
 </worksheet>
 </file>